--- a/medicine/Mort/Liche_(créature)/Liche_(créature).xlsx
+++ b/medicine/Mort/Liche_(créature)/Liche_(créature).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liche_(cr%C3%A9ature)</t>
+          <t>Liche_(créature)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liche est, dans la littérature et les jeux de fantasy, une créature imaginaire, un sorcier mort qui se maintient dans un état mort-vivant grâce à ses pouvoirs magiques.
 Les liches sont habituellement des créatures maléfiques, hautement intelligentes, autonomes et surtout, très puissantes. Mais la transformation d’un sorcier en liche peut se faire pour des raisons diverses, pas toujours maléfiques.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liche_(cr%C3%A9ature)</t>
+          <t>Liche_(créature)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Origine du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « liche », inconnu de la culture française, a été adapté de l'anglais « lich », utilisé dans ce contexte par les traducteurs des jeux et romans évoqués plus haut. En anglais, le mot est lié au vieil anglais « lyche »[1] et à l'allemand « leiche », qui signifient « corps » ou « cadavre ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « liche », inconnu de la culture française, a été adapté de l'anglais « lich », utilisé dans ce contexte par les traducteurs des jeux et romans évoqués plus haut. En anglais, le mot est lié au vieil anglais « lyche » et à l'allemand « leiche », qui signifient « corps » ou « cadavre ».
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liche_(cr%C3%A9ature)</t>
+          <t>Liche_(créature)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,15 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description
-La liche est un des monstres récurrents du jeu de rôle Donjons et Dragons, où elle apparaît comme un sorcier (ou un prêtre) de haut statut et d'une grande puissance ayant tout sacrifié pour obtenir la vie éternelle.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liche est un des monstres récurrents du jeu de rôle Donjons et Dragons, où elle apparaît comme un sorcier (ou un prêtre) de haut statut et d'une grande puissance ayant tout sacrifié pour obtenir la vie éternelle.
 Le processus pour devenir une liche est un secret bien gardé. Même pour ceux qui ont cette connaissance, l’opération reste très coûteuse et surtout dangereuse, l’échec entraînant la mort et la damnation éternelle. Pour devenir une liche, le prétendant doit créer un phylactère, en général un petit objet, qui servira à contenir sa force vitale (c'est-à-dire son âme) après sa mort.
 Détruire l’enveloppe physique d’une liche ne sert à rien si l’on ne détruit pas son phylactère, car celui-ci permet à la créature de se reconstituer complètement après un certain délai. Le phylactère d'une liche peut être soit une amulette contenant des incantations écrites, ou tout autre objet de très grande valeur aux yeux de son propriétaire.
 La liche la plus connue de l'univers de Faucongris (et de Donjons et Dragons dans son ensemble) est celle de l'archimage Vecna, dont il ne reste plus qu'un œil et une main ; ces reliques sont très recherchées pour leurs pouvoirs mystiques, mais dangereuses car maudites.
 Dans le film Donjons et Dragons, la puissance suprême, un des protagonistes, Klaxx, est une liche.
-Variantes
-Dans l’univers de campagne des Royaumes oubliés, il existe des liches qui n’étaient pas des humains avant de devenir mortes-vivantes. C’est le cas des Baelnorn, qui sont d’anciens magiciens et ensorceleurs elfes, des Alhoon, qui furent autrefois des illithids (une race également appelée « Flagelleurs mentaux »), ou bien des dracoliches, d’anciens dragons devenus morts-vivants, le plus souvent convaincus de le faire par l’organisation de sorciers mauvais nommée le culte du Dragon.
-Les demi-liches (Demilich en version originale) sont des liches particulièrement anciennes et puissantes. Il ne reste de leur corps physique qu’un peu de poussière, un crâne et quelques ossements, mais ils gardent des pouvoirs très puissants. La demi-liche la plus connue de Donjons et Dragons est Acererak, qui apparaît pour la première fois dans le scénario La Tombe des horreurs.
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liche_(cr%C3%A9ature)</t>
+          <t>Liche_(créature)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dans Donjons et Dragons</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l’univers de campagne des Royaumes oubliés, il existe des liches qui n’étaient pas des humains avant de devenir mortes-vivantes. C’est le cas des Baelnorn, qui sont d’anciens magiciens et ensorceleurs elfes, des Alhoon, qui furent autrefois des illithids (une race également appelée « Flagelleurs mentaux »), ou bien des dracoliches, d’anciens dragons devenus morts-vivants, le plus souvent convaincus de le faire par l’organisation de sorciers mauvais nommée le culte du Dragon.
+Les demi-liches (Demilich en version originale) sont des liches particulièrement anciennes et puissantes. Il ne reste de leur corps physique qu’un peu de poussière, un crâne et quelques ossements, mais ils gardent des pouvoirs très puissants. La demi-liche la plus connue de Donjons et Dragons est Acererak, qui apparaît pour la première fois dans le scénario La Tombe des horreurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans The Elder Scrolls</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les liches des jeux vidéo de la série The Elder Scrolls prennent plusieurs formes :
 dans The Elder Scrolls III: Morrowind, les liches que l'on rencontre sont les seigneurs des ossements, puis, dans l'extension « Tribunal », on peut apprécier les liches qui logent dans les égouts de Lonsanglot (Mournhold en version originale). Ces liches sont plus « conventionnelles » ;
@@ -593,59 +649,235 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liche_(cr%C3%A9ature)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Littérature
-Le personnage de Dorian Gray de l'écrivain Oscar Wilde s'apparente à la liche par certains aspects. Son portrait subissant les ravages du temps à sa place, il reste ainsi éternellement jeune; mais dès lors que le tableau est détruit, il retrouve l'état qu'il devrait connaître au même moment. Dans La Ligue des gentlemen extraordinaires, le pouvoir du tableau va jusqu'à rendre Dorian invincible car tous les dégâts qu'il subit sont immédiatement reportés sur le portrait, qui finit par ressembler à un cadavre sanguinolent.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le personnage de Dorian Gray de l'écrivain Oscar Wilde s'apparente à la liche par certains aspects. Son portrait subissant les ravages du temps à sa place, il reste ainsi éternellement jeune; mais dès lors que le tableau est détruit, il retrouve l'état qu'il devrait connaître au même moment. Dans La Ligue des gentlemen extraordinaires, le pouvoir du tableau va jusqu'à rendre Dorian invincible car tous les dégâts qu'il subit sont immédiatement reportés sur le portrait, qui finit par ressembler à un cadavre sanguinolent.
 L'auteur britannique J. R. R. Tolkien n'a jamais formellement défini Sauron comme une « liche » (car, dans son univers, celui-ci fait partie des Maiar, une race d'esprits célestes comme les Valar), mais son personnage en remplit la définition du fait qu'il doive sa « survie » à l'Anneau unique, qui lui fait office de phylactère. Toutefois, dans la mythologie de Tolkien, Sauron ne disparaît pas lors de la destruction de l'anneau, mais est plutôt réduit à l'état de spectre impuissant, condamné à errer sur la Terre du Milieu jusqu'à la fin des temps.
 On peut supposer que les Nazgûl, qui peuvent être repoussés temporairement mais jamais détruits, suivent la même logique avec leurs anneaux de pouvoir respectifs mais ce n'est pas certain, leur destin restant lié à Sauron. Dans le jeu vidéo La Terre du Milieu : L'Ombre de la guerre, Talion parvient à tuer un des Nazgûl ; mais après s'être emparé de son anneau pour survivre, finit par devenir l'un des leurs, ce qui symbolise l'immortalité des Nazgûl moins en tant qu'individus qu'en tant que serviteurs de l'anneau interchangeables (l'identité de sept d'entre eux n'est pas arrêtée dans la mythologie). Durant la bataille des Champs du Pelennor, Éowyn tue le chef des Nazgûl, le roi-sorcier d'Angmar, sans toucher à son anneau. Les Nazgûl et leurs anneaux respectifs disparurent en même temps que Sauron et l'anneau unique.
 Voldemort, antagoniste récurrent de la saga Harry Potter, est en quelque sorte une liche. Après avoir survécu sous une forme diminuée et parasitaire, il finit par reprendre forme humaine, mais de façon incomplète, ressemblant encore davantage à un cadavre. Sa survie dépend de l'intégrité de ses horcruxes, qui font donc office de phylactères. Il meurt instantanément à la destruction du dernier.
 Dans la série Kono subarashii sekai ni shukufuku o!, le personnage de Wiz est une liche tenant une boutique proposant de nombreux objets magiques de toute sorte.
-Xaltotun, sorcier d'Acheron ennemi de Conan le Barbare dans L'Heure du Dragon, peut être considéré comme une liche, devant sa résurrection (et peut-être son antérieure longévité exceptionnelle) au cœur d'Ahriman. Il vit toutefois même après l'avoir perdu, jusqu'au moment où l'objet est utilisé contre lui. Une magicienne nous apprend alors que le cœur ne lui donnait qu'une apparence de vie.
-Livre-jeu
-Dans le 7e tome de la série Quête du Graal, Le Tombeau des Maléfices (Tomb of Nightmares, 1986) de J. H. Brennan, l'antagoniste principal, Grott le Gredin, est une liche selon la description et sa dénomination en version originale (orthographiée lych toutefois) et ce bien que la traduction française ait inventé pour l'occasion le terme de brucolaque[2].
-Cinéma
-Le Seigneur des Ténèbres dans Taram et le Chaudron magique (1985), dessin animé des studios Disney.
+Xaltotun, sorcier d'Acheron ennemi de Conan le Barbare dans L'Heure du Dragon, peut être considéré comme une liche, devant sa résurrection (et peut-être son antérieure longévité exceptionnelle) au cœur d'Ahriman. Il vit toutefois même après l'avoir perdu, jusqu'au moment où l'objet est utilisé contre lui. Une magicienne nous apprend alors que le cœur ne lui donnait qu'une apparence de vie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livre-jeu</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le 7e tome de la série Quête du Graal, Le Tombeau des Maléfices (Tomb of Nightmares, 1986) de J. H. Brennan, l'antagoniste principal, Grott le Gredin, est une liche selon la description et sa dénomination en version originale (orthographiée lych toutefois) et ce bien que la traduction française ait inventé pour l'occasion le terme de brucolaque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Seigneur des Ténèbres dans Taram et le Chaudron magique (1985), dessin animé des studios Disney.
 Jafar dans Aladdin (1992), après être devenu le plus puissant sorcier de l'Univers, devient le Génie d'une Lampe magique. Bien qu'invincible sous cette forme, il est prisonnier de cet artefact et meurt instantanément lors de la destruction de sa lampe dans Le Retour de Jafar.
 Le sorcier Raspoutine du film Anastasia (1997) de Don Bluth, dont la représentation est très caractéristique du monstre, avec son corps cadavérique et son précieux phylactère, dans lequel sont concentrés tous ses pouvoirs.
 Davy Jones (de la série Pirates des Caraïbes), bien que n'étant pas sorcier, s'apparente à une liche : grâce à un sortilège de Calypso, il s'est arraché le cœur et l'a enfermé dans un coffre, dans lequel il continue de fonctionner de manière autonome. À l'instar de la liche et de son phylactère, Davy Jones est invulnérable aux attaques physiques qui lui sont portées directement, mais quiconque détruit son cœur provoque sa mort instantanément.
-Dans le quatrième opus La Fontaine de Jouvence, les marins du Queen Anne's Revenge croisent une ribambelle de bougies posées dans une grotte. L'un d'eux en brise une par curiosité, ce qui provoque instantanément la mort de son voisin[3]. Cela signifie que l'espérance de vie respective de tous les marins de l'océan (voir tous les mortels) dépend donc de l'intégrité de la bougie qui lui est associée, à la manière du phylactère d'une liche.
-Télévision
-Skeletor, le principal méchant de la série animée Les Maîtres de l'univers ainsi que du film qui en découle, est lui aussi une sorte de liche. En effet, il s'agit d'un sorcier dont le visage n'est qu'un crâne nu et dont la peau est d'un gris bleuâtre, comme celle d'un homme fraîchement décédé.
+Dans le quatrième opus La Fontaine de Jouvence, les marins du Queen Anne's Revenge croisent une ribambelle de bougies posées dans une grotte. L'un d'eux en brise une par curiosité, ce qui provoque instantanément la mort de son voisin. Cela signifie que l'espérance de vie respective de tous les marins de l'océan (voir tous les mortels) dépend donc de l'intégrité de la bougie qui lui est associée, à la manière du phylactère d'une liche.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Skeletor, le principal méchant de la série animée Les Maîtres de l'univers ainsi que du film qui en découle, est lui aussi une sorte de liche. En effet, il s'agit d'un sorcier dont le visage n'est qu'un crâne nu et dont la peau est d'un gris bleuâtre, comme celle d'un homme fraîchement décédé.
 Le Roi-Liche est un méchant de la série animée Adventure Time. Bien qu'il apparaisse rarement, de par sa puissance et son influence, il peut être considéré comme l'un des antagonistes principaux.
 Une liche apparaît dans l'épisode 8 de la saison 2 de Lost Girl.
-Dans la série animée OK K.O.! Let's Be Heroes, un « Squelette Vraiment Magique » est un ancien sorcier dont les pouvoirs magiques lui permettent de rester en vie sous forme de squelette, d'où son nom. C'est un personnage assez mineur, on ne connaît pas l'étendue de ses pouvoirs si ce n'est qu'il vit toujours même si ses os sont séparés et qu'il peut générer un feu violet ; s'il tombe à court de magie, il meurt.
-Bande dessinée et manga
-Par certains aspects, on peut considérer que Sasori, personnage du manga Naruto, est une sorte de liche, n'ayant conservé que son cœur qu'il a réimplanté dans son propre corps après empaillage grâce à un jutsu. Seule l'intégrité du cœur est nécessaire à sa survie.
+Dans la série animée OK K.O.! Let's Be Heroes, un « Squelette Vraiment Magique » est un ancien sorcier dont les pouvoirs magiques lui permettent de rester en vie sous forme de squelette, d'où son nom. C'est un personnage assez mineur, on ne connaît pas l'étendue de ses pouvoirs si ce n'est qu'il vit toujours même si ses os sont séparés et qu'il peut générer un feu violet ; s'il tombe à court de magie, il meurt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bande dessinée et manga</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Par certains aspects, on peut considérer que Sasori, personnage du manga Naruto, est une sorte de liche, n'ayant conservé que son cœur qu'il a réimplanté dans son propre corps après empaillage grâce à un jutsu. Seule l'intégrité du cœur est nécessaire à sa survie.
 Momonga/Ainz, le protagoniste du manga Overlord, peut être comparé à une liche car c'est un squelette magicien. Des liches sont d'ailleurs présentes dans son armée.
 Brook (One Piece), de One Piece, a mangé le fruit du démon qui confère l'immortalité. Réduit à l'état de squelette ambulant, il est donc littéralement invincible, et ne peut hypothétiquement mourir qu'en étant exorcisé de cette « malédiction ».
-Dans Kono Subarashii Sekai ni Shukufuku, Wiz et Keele sont mentionnés comme étant des liches
-Jeux vidéo
-Dans le jeu Titan Quest, les liches sont souvent des ennemis à combattre, parfois des boss, mais les joueurs qui ont la maîtrise « Esprit » peuvent invoquer un roi liche pour combattre à leurs côtés.
+Dans Kono Subarashii Sekai ni Shukufuku, Wiz et Keele sont mentionnés comme étant des liches</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dans le jeu Titan Quest, les liches sont souvent des ennemis à combattre, parfois des boss, mais les joueurs qui ont la maîtrise « Esprit » peuvent invoquer un roi liche pour combattre à leurs côtés.
 Ner'zhul, le Roi Liche dans le monde imaginaire de Warcraft. D'autres liches moins puissantes comme Kel'Thuzad, pour la plupart servantes de Ner'zhul, existent dans cet univers. À noter que Ner'zhul n'est plus assez puissant pour se mouvoir de lui-même, et ce n'est que lorsqu'Arthas Menethil revêt le heaume dans lequel l'âme du chaman survit que le Roi Liche, fusion de leurs deux esprits, reprend la tête du Fléau. Il est aussi possible que l'utilisateur de Deuillegivre (Frostmourne en version anglaise) soit une liche puisque l'épée emprisonne son âme.
 Karthus dans League of Legends est une liche.
 Thanatos de Secret of Mana et le Mage Masqué de Secret of Mana 2, se transforment en liche (Dark Lich dans la version anglaise, Tenebro dans la version française) pour affronter le héros. On rencontre également une liche dans le premier épisode de la série Seiken densetsu.
@@ -662,18 +894,120 @@
 Dans Rogue Legacy, une liche est disponible parmi la liste des personnages à jouer.
 Ethreain la liche est un des héros jouables dans le jeu multijoueur Dota 2.
 Le boss secret de fin du jeu Enter the Gungeon est une liche.
-Les Iron Liche sont des têtes de mort dans le jeu Heretic.
-Jeux de rôle
-Szass Tam, dirigeant des Sorciers Rouges dans l'univers des Royaumes oubliés.
+Les Iron Liche sont des têtes de mort dans le jeu Heretic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Jeux de rôle</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Szass Tam, dirigeant des Sorciers Rouges dans l'univers des Royaumes oubliés.
 Dans l'univers fantastique de Warhammer, les liches sont les prêtres de la civilisation antique de Nehekara. Ils connaissent les rituels de momification et ont pu se maintenir à l'état de morts-vivants grâce à leurs pouvoirs. La liche la plus puissante de l'univers de Warhammer est Nagash, le seigneur suprême des morts-vivants, prêtre déchu, destructeur de la civilisation de Nehekara et créateur des vampires.
-Welcome to the dungeon est un jeu de rôles mi-stratégique, mi-bluff, mi-fantastique.
-Web-séries
-Une liche en babouches apparaît brièvement dans l'épisode 9 du Donjon de Naheulbeuk. Cette liche tue alors le Nain se promenant alors seul. Dans le même épisode, la liche meurt tuée par le reste de la Compagnie. La liche avait un appartement supposé dans l'un des étages du donjon.
+Welcome to the dungeon est un jeu de rôles mi-stratégique, mi-bluff, mi-fantastique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Web-séries</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Une liche en babouches apparaît brièvement dans l'épisode 9 du Donjon de Naheulbeuk. Cette liche tue alors le Nain se promenant alors seul. Dans le même épisode, la liche meurt tuée par le reste de la Compagnie. La liche avait un appartement supposé dans l'un des étages du donjon.
 L'antagoniste principal de la fin de la première campagne websérie Critical Role est Vecna, l'archiliche qui veut s'élever au rang de divinité.
 Xykon, principal antagoniste de la bande dessinée en ligne The Order of the Stick est une liche typique de Donjons et Dragons.
-Dans la série audio Reflets d'acide, une liche est le chef de l'armée des morts et damnés du Mortir.
-Jeux de cartes à collectionner
-Dans Magic : L'Assemblée, depuis les premières éditions du jeu (la première datant de 1993), des liches sont utilisées comme créatures, enchantements, etc.
+Dans la série audio Reflets d'acide, une liche est le chef de l'armée des morts et damnés du Mortir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liche_(créature)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liche_(cr%C3%A9ature)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Jeux de cartes à collectionner</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dans Magic : L'Assemblée, depuis les premières éditions du jeu (la première datant de 1993), des liches sont utilisées comme créatures, enchantements, etc.
 Dans Yu-Gi-Oh!, plusieurs cartes représentent des liches voire des dracoliches.
 Dans Hearthstone, le personnage du Roi Liche (à l'origine un personnage du jeu World of Warcraft) est présent, notamment depuis l'extension Chevaliers du Trône de glace.</t>
         </is>
